--- a/mis7375 TPS Medical form data dictionary.xlsx
+++ b/mis7375 TPS Medical form data dictionary.xlsx
@@ -1,42 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sailohith/Documents/SEM2/TPS/Project/MIS7375-TPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387FFD8E-1F96-3D44-860B-F02FC240E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EDF3D87-3029-9248-97CE-67BC68CE5D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{497B896B-F03E-6541-AFB5-8A84B1E60648}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="139">
   <si>
     <t>Sequence</t>
   </si>
@@ -74,202 +58,385 @@
     <t>date_created</t>
   </si>
   <si>
+    <t>date_modified</t>
+  </si>
+  <si>
+    <t>date_accessed</t>
+  </si>
+  <si>
+    <t>date_inactive</t>
+  </si>
+  <si>
+    <t>usertype</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>middleinit</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>addr1</t>
+  </si>
+  <si>
+    <t>addr2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>phone1</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password_hashed</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>space_needed</t>
+  </si>
+  <si>
+    <t>movein_date</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>passwd_date</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>ssn</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>emgName</t>
+  </si>
+  <si>
+    <t>emgPhone</t>
+  </si>
+  <si>
+    <t>emgAltPhone</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>accountEmail</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>emgRelation</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>vaccinated</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>hx</t>
+  </si>
+  <si>
     <t>datetime</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>s</t>
   </si>
   <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>date row was created</t>
   </si>
   <si>
+    <t>date row was last modfied</t>
+  </si>
+  <si>
+    <t>date row was last querried</t>
+  </si>
+  <si>
+    <t>date row was made inactive/deleted</t>
+  </si>
+  <si>
+    <t>user type, aka a=admin, u=user, e=employee, w=web</t>
+  </si>
+  <si>
+    <t>aka a=active,s=suspended,d=delinquent,i=inactive</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Initial</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address line 1</t>
+  </si>
+  <si>
+    <t>Optional address line 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State Code</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>plaintext password. Do not store actual password. This is a placeholder</t>
+  </si>
+  <si>
+    <t>hashed password</t>
+  </si>
+  <si>
+    <t>Need Storage? N=no or not indicated, Y=yes</t>
+  </si>
+  <si>
+    <t>1=standard, 2=extended, 3=doublewide</t>
+  </si>
+  <si>
+    <t>Date of desired move in</t>
+  </si>
+  <si>
+    <t>tell us about yourself</t>
+  </si>
+  <si>
+    <t>date pw was changed</t>
+  </si>
+  <si>
+    <t>0=no,1=yes</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Social Security</t>
+  </si>
+  <si>
+    <t>Phone (optional)</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Alt Phone (optional)</t>
+  </si>
+  <si>
+    <t>Health (1-10)</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Account Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Current Symptoms</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Hx</t>
+  </si>
+  <si>
+    <t>Self-reported health 1–10</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
     <t>YYYYMMDDHHMMSS</t>
   </si>
   <si>
-    <t>date_modified</t>
-  </si>
-  <si>
-    <t>date row was last modfied</t>
-  </si>
-  <si>
-    <t>date_accessed</t>
-  </si>
-  <si>
-    <t>date row was last querried</t>
-  </si>
-  <si>
-    <t>date_inactive</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>date row was made inactive/deleted</t>
-  </si>
-  <si>
-    <t>usertype</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>user type, aka a=admin, u=user, e=employee, w=web</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>aka a=active,s=suspended,d=delinquent,i=inactive</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>middleinit</t>
-  </si>
-  <si>
-    <t>Middle Initial</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>addr1</t>
-  </si>
-  <si>
-    <t>Address line 1</t>
-  </si>
-  <si>
-    <t>addr2</t>
-  </si>
-  <si>
-    <t>Optional address line 2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>State Code</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>phone1</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
     <t>NXXNXXXXXX</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>user id</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>"[A-Za-z]+[A-Za-z0-9-_]{8,}"</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>plaintext password. Do not store actual password. This is a placeholder</t>
-  </si>
-  <si>
     <t xml:space="preserve">"(?=.*\d)(?=.*[a-z])(?=.*[A-Z]).{8,}" </t>
   </si>
   <si>
-    <t>password_hashed</t>
-  </si>
-  <si>
-    <t>hashed password</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>Need Storage? N=no or not indicated, Y=yes</t>
-  </si>
-  <si>
-    <t>space_needed</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>1=standard, 2=extended, 3=doublewide</t>
-  </si>
-  <si>
-    <t>movein_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Date of desired move in</t>
-  </si>
-  <si>
     <t>YYYYMMDD</t>
   </si>
   <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>tell us about yourself</t>
-  </si>
-  <si>
-    <t>passwd_date</t>
-  </si>
-  <si>
-    <t>date pw was changed</t>
-  </si>
-  <si>
-    <t>Vaccinated</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>0=no,1=yes</t>
+    <t>^(0[1-9]|1[0-2])\/(0[1-9]|[12]\d|3[01])\/\d{4}$</t>
+  </si>
+  <si>
+    <t>^\(\d{3}\)\s?\d{3}-\d{4}$</t>
+  </si>
+  <si>
+    <t>^\d{5}(-\d{4})?$</t>
+  </si>
+  <si>
+    <t>^(?=.*[A-Z])(?=.*[!@#$%^&amp;*]).{6,15}$</t>
+  </si>
+  <si>
+    <t>AL|AK|AZ|AR|CA|CO|CT|DE|DC|FL|GA|HI|ID|IL|IN|IA|KS|KY|LA|ME|MD|MA|MI|MN|MS|MO|MT|NE|NV|NH|NJ|NM|NY|NC|ND|OH|OK|OR|PA|PR|RI|SC|SD|TN|TX|UT|VT|VA|WA|WV|WI|WY</t>
+  </si>
+  <si>
+    <t>Spouse|Parent|Child|Sibling|Friend|Other</t>
+  </si>
+  <si>
+    <t>female|male|other|prefer_not_to_say</t>
+  </si>
+  <si>
+    <t>no|yes</t>
+  </si>
+  <si>
+    <t>chickenpox|covid19|measles|smallpox|tetanus</t>
+  </si>
+  <si>
+    <t>^([1-9]|10)$</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -278,16 +445,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -308,30 +476,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,9 +524,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,44 +534,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -419,31 +599,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -471,26 +634,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,216 +645,228 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9E63D9-ADFF-A44C-80F3-1473D84B956E}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="O16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="41.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -716,769 +874,1326 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3">
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>71</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3">
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>72</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>73</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>74</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3"/>
+        <v>118</v>
+      </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+        <v>77</v>
+      </c>
       <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>78</v>
+      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3">
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>79</v>
+      </c>
       <c r="J10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3">
         <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+        <v>80</v>
+      </c>
       <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3">
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3">
         <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>82</v>
+      </c>
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>83</v>
+      </c>
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+        <v>24</v>
+      </c>
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>84</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="J16" s="3">
         <v>10</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3">
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>85</v>
+      </c>
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3">
         <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="J18" s="3">
         <v>6</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3">
         <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="J19" s="3">
         <v>8</v>
       </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3">
         <v>50</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+        <v>89</v>
+      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>90</v>
+      </c>
       <c r="K22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3">
         <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>91</v>
+      </c>
       <c r="I23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3">
         <v>10.199999999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>70</v>
+      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3">
         <v>256</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <v>8</v>
       </c>
-      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>93</v>
+      </c>
       <c r="I26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+        <v>62</v>
+      </c>
       <c r="G27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3">
+        <v>30</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="3">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="3">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="3">
+        <v>60</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="3">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="3">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="3">
+        <v>15</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
